--- a/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
+++ b/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>机构名称</t>
   </si>
@@ -247,11 +247,29 @@
     <t>${obj.originalPrice}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(L3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(O3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(Q3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,12 +394,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,7 +490,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -683,7 +772,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,7 +915,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
+++ b/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="Q3")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -104,6 +106,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>hCode</t>
@@ -113,6 +116,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -164,6 +168,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>supplierName</t>
@@ -173,6 +178,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -200,6 +206,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>unit</t>
@@ -209,6 +216,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -264,12 +272,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -277,6 +287,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -284,28 +295,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -680,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,7 +849,7 @@
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -923,7 +939,6 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
+++ b/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>机构名称</t>
   </si>
@@ -104,6 +106,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>hCode</t>
@@ -113,6 +116,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -164,6 +168,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>supplierName</t>
@@ -173,6 +178,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -200,6 +206,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>unit</t>
@@ -209,6 +216,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -245,21 +253,6 @@
   </si>
   <si>
     <t>${obj.originalPrice}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(O3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(Q3)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -267,9 +260,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,12 +272,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -295,6 +287,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -302,28 +295,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -375,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,83 +392,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -490,7 +417,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -769,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -915,40 +842,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1038,7 +939,6 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
+++ b/src/main/resources/template/excel/export/poolSaleDetailReport.xlsx
@@ -260,6 +260,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,10 +391,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -698,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,25 +722,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -823,22 +829,22 @@
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -945,7 +951,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>